--- a/medicine/Pharmacie/Les_Entreprises_du_médicament/Les_Entreprises_du_médicament.xlsx
+++ b/medicine/Pharmacie/Les_Entreprises_du_médicament/Les_Entreprises_du_médicament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Entreprises_du_m%C3%A9dicament</t>
+          <t>Les_Entreprises_du_médicament</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Entreprises du médicament (Leem)  est un syndicat professionnel français du milieu pharmaceutique et un lobby qui s'est substitué en 2002 au Syndicat national de l'industrie pharmaceutique (SNIP)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Entreprises du médicament (Leem)  est un syndicat professionnel français du milieu pharmaceutique et un lobby qui s'est substitué en 2002 au Syndicat national de l'industrie pharmaceutique (SNIP).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Entreprises_du_m%C3%A9dicament</t>
+          <t>Les_Entreprises_du_médicament</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil d’administration du Leem, composé de quarante personnes, forme son autorité politique. Son mandat est de quatre ans[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil d’administration du Leem, composé de quarante personnes, forme son autorité politique. Son mandat est de quatre ans.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Entreprises_du_m%C3%A9dicament</t>
+          <t>Les_Entreprises_du_médicament</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,86 @@
           <t>Activité de lobbying</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hervé Gisserot, nommé en 2012 à la tête de la Fédération, affirme en 2013 que le Leem veut adopter sur le lobbying « une approche décomplexée », et précise: « Le lobbying est une activité qui s’inscrit naturellement dans le fonctionnement de nos institutions » selon « des principes déontologiques stricts »[3],[4].
-Auprès de l'Assemblée nationale
-Le syndicat est inscrit comme représentant d'intérêts auprès de l'Assemblée nationale. Il déclare à ce titre qu'en 2013, les coûts annuels liés aux activités directes de représentation d'intérêts auprès du Parlement s'élèvent à 364 900 euros[5]. En 2017, cette somme est comprise entre 400 000 et 500 000 euros. En 2018, ses coûts sont compris entre 900 000 et un million d'euros[6].
-En 2006, l'EFPIA s'élève contre l'intention de l'Union nationale des caisses d'assurance maladie d'obliger les médecins à prescrire des Médicaments génériques. Cette décision imposerait les pharmacies à substituer les médicaments génériques aux produits de marque dans 75 % des cas, contre 70 % avant 2007[7],[8],[9].
-Union Européenne
-Le Leem est présent dans le registre de transparence de l'Union Européenne avec un budget de 193 050 € en 2018[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hervé Gisserot, nommé en 2012 à la tête de la Fédération, affirme en 2013 que le Leem veut adopter sur le lobbying « une approche décomplexée », et précise: « Le lobbying est une activité qui s’inscrit naturellement dans le fonctionnement de nos institutions » selon « des principes déontologiques stricts »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Entreprises_du_médicament</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Entreprises_du_m%C3%A9dicament</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activité de lobbying</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auprès de l'Assemblée nationale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndicat est inscrit comme représentant d'intérêts auprès de l'Assemblée nationale. Il déclare à ce titre qu'en 2013, les coûts annuels liés aux activités directes de représentation d'intérêts auprès du Parlement s'élèvent à 364 900 euros. En 2017, cette somme est comprise entre 400 000 et 500 000 euros. En 2018, ses coûts sont compris entre 900 000 et un million d'euros.
+En 2006, l'EFPIA s'élève contre l'intention de l'Union nationale des caisses d'assurance maladie d'obliger les médecins à prescrire des Médicaments génériques. Cette décision imposerait les pharmacies à substituer les médicaments génériques aux produits de marque dans 75 % des cas, contre 70 % avant 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Entreprises_du_médicament</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Entreprises_du_m%C3%A9dicament</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activité de lobbying</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Union Européenne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Leem est présent dans le registre de transparence de l'Union Européenne avec un budget de 193 050 € en 2018.
 </t>
         </is>
       </c>
